--- a/src/test/resources/excelTests/manifestUploadNotExistingCC_XD_TXD.xlsx
+++ b/src/test/resources/excelTests/manifestUploadNotExistingCC_XD_TXD.xlsx
@@ -1892,7 +1892,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="52" t="n">
-        <v>43922.0</v>
+        <v>43933.0</v>
       </c>
       <c r="C3" s="63" t="n">
         <v>0.4375</v>
@@ -1904,7 +1904,7 @@
         <v>112</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43923.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1920,7 +1920,7 @@
         <v>142</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43925.0</v>
+        <v>43936.0</v>
       </c>
       <c r="O3" s="54" t="n">
         <v>0.4583333333333333</v>
@@ -1932,7 +1932,7 @@
         <v>134</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43938.0</v>
+        <v>43949.0</v>
       </c>
       <c r="S3" s="74" t="n">
         <v>0.4166666666666667</v>
@@ -1961,7 +1961,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="42" t="n">
-        <v>43921.0</v>
+        <v>43932.0</v>
       </c>
       <c r="C4" s="61" t="n">
         <v>0.4791666666666667</v>
@@ -1973,7 +1973,7 @@
         <v>113</v>
       </c>
       <c r="F4" s="44" t="n">
-        <v>43921.0</v>
+        <v>43932.0</v>
       </c>
       <c r="G4" s="45" t="n">
         <v>0.6875</v>
@@ -1985,7 +1985,7 @@
         <v>143</v>
       </c>
       <c r="J4" s="47" t="n">
-        <v>43924.0</v>
+        <v>43935.0</v>
       </c>
       <c r="K4" s="56" t="n">
         <v>0.5277777777777778</v>
@@ -1997,7 +1997,7 @@
         <v>111</v>
       </c>
       <c r="N4" s="46" t="n">
-        <v>43926.0</v>
+        <v>43937.0</v>
       </c>
       <c r="O4" s="53" t="n">
         <v>0.7083333333333334</v>
@@ -2009,7 +2009,7 @@
         <v>136</v>
       </c>
       <c r="R4" s="51" t="n">
-        <v>43930.0</v>
+        <v>43941.0</v>
       </c>
       <c r="S4" s="77" t="n">
         <v>0.5</v>
@@ -2035,7 +2035,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="42" t="n">
-        <v>43917.0</v>
+        <v>43928.0</v>
       </c>
       <c r="C5" s="61" t="n">
         <v>0.3541666666666667</v>
@@ -2047,7 +2047,7 @@
         <v>144</v>
       </c>
       <c r="F5" s="43" t="n">
-        <v>43920.0</v>
+        <v>43931.0</v>
       </c>
       <c r="G5" s="45" t="n">
         <v>0.4375</v>
@@ -2059,7 +2059,7 @@
         <v>114</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>43923.0</v>
+        <v>43934.0</v>
       </c>
       <c r="K5" s="56" t="n">
         <v>0.5798611111111112</v>
@@ -2075,7 +2075,7 @@
         <v>134</v>
       </c>
       <c r="R5" s="51" t="n">
-        <v>43924.0</v>
+        <v>43935.0</v>
       </c>
       <c r="S5" s="77" t="n">
         <v>0.7083333333333334</v>

--- a/src/test/resources/excelTests/manifestUploadNotExistingCC_XD_TXD.xlsx
+++ b/src/test/resources/excelTests/manifestUploadNotExistingCC_XD_TXD.xlsx
@@ -1892,7 +1892,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="52" t="n">
-        <v>43933.0</v>
+        <v>43936.0</v>
       </c>
       <c r="C3" s="63" t="n">
         <v>0.4375</v>
@@ -1904,7 +1904,7 @@
         <v>112</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1920,7 +1920,7 @@
         <v>142</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43936.0</v>
+        <v>43939.0</v>
       </c>
       <c r="O3" s="54" t="n">
         <v>0.4583333333333333</v>
@@ -1932,7 +1932,7 @@
         <v>134</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43949.0</v>
+        <v>43952.0</v>
       </c>
       <c r="S3" s="74" t="n">
         <v>0.4166666666666667</v>
@@ -1961,7 +1961,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="42" t="n">
-        <v>43932.0</v>
+        <v>43935.0</v>
       </c>
       <c r="C4" s="61" t="n">
         <v>0.4791666666666667</v>
@@ -1973,7 +1973,7 @@
         <v>113</v>
       </c>
       <c r="F4" s="44" t="n">
-        <v>43932.0</v>
+        <v>43935.0</v>
       </c>
       <c r="G4" s="45" t="n">
         <v>0.6875</v>
@@ -1985,7 +1985,7 @@
         <v>143</v>
       </c>
       <c r="J4" s="47" t="n">
-        <v>43935.0</v>
+        <v>43938.0</v>
       </c>
       <c r="K4" s="56" t="n">
         <v>0.5277777777777778</v>
@@ -1997,7 +1997,7 @@
         <v>111</v>
       </c>
       <c r="N4" s="46" t="n">
-        <v>43937.0</v>
+        <v>43940.0</v>
       </c>
       <c r="O4" s="53" t="n">
         <v>0.7083333333333334</v>
@@ -2009,7 +2009,7 @@
         <v>136</v>
       </c>
       <c r="R4" s="51" t="n">
-        <v>43941.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S4" s="77" t="n">
         <v>0.5</v>
@@ -2035,7 +2035,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="42" t="n">
-        <v>43928.0</v>
+        <v>43931.0</v>
       </c>
       <c r="C5" s="61" t="n">
         <v>0.3541666666666667</v>
@@ -2047,7 +2047,7 @@
         <v>144</v>
       </c>
       <c r="F5" s="43" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G5" s="45" t="n">
         <v>0.4375</v>
@@ -2059,7 +2059,7 @@
         <v>114</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="K5" s="56" t="n">
         <v>0.5798611111111112</v>
@@ -2075,7 +2075,7 @@
         <v>134</v>
       </c>
       <c r="R5" s="51" t="n">
-        <v>43935.0</v>
+        <v>43938.0</v>
       </c>
       <c r="S5" s="77" t="n">
         <v>0.7083333333333334</v>

--- a/src/test/resources/excelTests/manifestUploadNotExistingCC_XD_TXD.xlsx
+++ b/src/test/resources/excelTests/manifestUploadNotExistingCC_XD_TXD.xlsx
@@ -1892,7 +1892,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="52" t="n">
-        <v>43936.0</v>
+        <v>43942.0</v>
       </c>
       <c r="C3" s="63" t="n">
         <v>0.4375</v>
@@ -1904,7 +1904,7 @@
         <v>112</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1920,7 +1920,7 @@
         <v>142</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43939.0</v>
+        <v>43945.0</v>
       </c>
       <c r="O3" s="54" t="n">
         <v>0.4583333333333333</v>
@@ -1932,7 +1932,7 @@
         <v>134</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43952.0</v>
+        <v>43958.0</v>
       </c>
       <c r="S3" s="74" t="n">
         <v>0.4166666666666667</v>
@@ -1961,7 +1961,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="42" t="n">
-        <v>43935.0</v>
+        <v>43941.0</v>
       </c>
       <c r="C4" s="61" t="n">
         <v>0.4791666666666667</v>
@@ -1973,7 +1973,7 @@
         <v>113</v>
       </c>
       <c r="F4" s="44" t="n">
-        <v>43935.0</v>
+        <v>43941.0</v>
       </c>
       <c r="G4" s="45" t="n">
         <v>0.6875</v>
@@ -1985,7 +1985,7 @@
         <v>143</v>
       </c>
       <c r="J4" s="47" t="n">
-        <v>43938.0</v>
+        <v>43944.0</v>
       </c>
       <c r="K4" s="56" t="n">
         <v>0.5277777777777778</v>
@@ -1997,7 +1997,7 @@
         <v>111</v>
       </c>
       <c r="N4" s="46" t="n">
-        <v>43940.0</v>
+        <v>43946.0</v>
       </c>
       <c r="O4" s="53" t="n">
         <v>0.7083333333333334</v>
@@ -2009,7 +2009,7 @@
         <v>136</v>
       </c>
       <c r="R4" s="51" t="n">
-        <v>43944.0</v>
+        <v>43950.0</v>
       </c>
       <c r="S4" s="77" t="n">
         <v>0.5</v>
@@ -2035,7 +2035,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="42" t="n">
-        <v>43931.0</v>
+        <v>43937.0</v>
       </c>
       <c r="C5" s="61" t="n">
         <v>0.3541666666666667</v>
@@ -2047,7 +2047,7 @@
         <v>144</v>
       </c>
       <c r="F5" s="43" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="G5" s="45" t="n">
         <v>0.4375</v>
@@ -2059,7 +2059,7 @@
         <v>114</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="K5" s="56" t="n">
         <v>0.5798611111111112</v>
@@ -2075,7 +2075,7 @@
         <v>134</v>
       </c>
       <c r="R5" s="51" t="n">
-        <v>43938.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S5" s="77" t="n">
         <v>0.7083333333333334</v>
